--- a/historical/JSWENERGY.xlsx
+++ b/historical/JSWENERGY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5273,6 +5273,53 @@
         <v>0.3241</v>
       </c>
     </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>344.3</v>
+      </c>
+      <c r="E104">
+        <v>346</v>
+      </c>
+      <c r="F104">
+        <v>353.8</v>
+      </c>
+      <c r="G104">
+        <v>336</v>
+      </c>
+      <c r="H104">
+        <v>340</v>
+      </c>
+      <c r="I104">
+        <v>339.05</v>
+      </c>
+      <c r="J104">
+        <v>346.19</v>
+      </c>
+      <c r="K104">
+        <v>1953803</v>
+      </c>
+      <c r="L104">
+        <v>67638442860000</v>
+      </c>
+      <c r="M104">
+        <v>27170</v>
+      </c>
+      <c r="N104">
+        <v>502340</v>
+      </c>
+      <c r="O104">
+        <v>0.2571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
